--- a/data/담당자별_판매량_Andy사원2.xlsx
+++ b/data/담당자별_판매량_Andy사원2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>제품명</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>핸드백</t>
-  </si>
-  <si>
-    <t>벨트</t>
   </si>
   <si>
     <t>Andy</t>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +441,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>198</v>
@@ -467,10 +464,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>273</v>
@@ -490,10 +487,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4">
         <v>385</v>
@@ -505,30 +502,7 @@
         <v>355</v>
       </c>
       <c r="G4">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>150</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
